--- a/SchedulingData/static5/pso/scheduling1_14.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_14.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.8</v>
+        <v>47.56</v>
       </c>
       <c r="E2" t="n">
-        <v>26.52</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116.4</v>
+        <v>42.72</v>
       </c>
       <c r="E3" t="n">
-        <v>21.18</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>116.4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>181.5</v>
+        <v>58.28</v>
       </c>
       <c r="E4" t="n">
-        <v>18.26</v>
+        <v>26.832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>47.56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>25.944</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58.28</v>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>113.78</v>
       </c>
       <c r="E6" t="n">
-        <v>24.9</v>
+        <v>22.412</v>
       </c>
     </row>
     <row r="7">
@@ -561,264 +561,264 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64.64</v>
+        <v>100.5</v>
       </c>
       <c r="E7" t="n">
-        <v>25.736</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>47.56</v>
       </c>
       <c r="D8" t="n">
-        <v>38.72</v>
+        <v>106.18</v>
       </c>
       <c r="E8" t="n">
-        <v>26.828</v>
+        <v>23.172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>64.64</v>
+        <v>106.18</v>
       </c>
       <c r="D9" t="n">
-        <v>131.54</v>
+        <v>143.88</v>
       </c>
       <c r="E9" t="n">
-        <v>22.136</v>
+        <v>20.532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>143.88</v>
       </c>
       <c r="D10" t="n">
-        <v>79.78</v>
+        <v>209.98</v>
       </c>
       <c r="E10" t="n">
-        <v>26.152</v>
+        <v>17.052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>63</v>
+        <v>100.5</v>
       </c>
       <c r="D11" t="n">
-        <v>106.14</v>
+        <v>149.3</v>
       </c>
       <c r="E11" t="n">
-        <v>22.216</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47.56</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>136.48</v>
+        <v>55.28</v>
       </c>
       <c r="E12" t="n">
-        <v>21.632</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>131.54</v>
+        <v>209.98</v>
       </c>
       <c r="D13" t="n">
-        <v>176.4</v>
+        <v>263.84</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28</v>
+        <v>13.776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>136.48</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>181.58</v>
+        <v>121.8</v>
       </c>
       <c r="E14" t="n">
-        <v>18.252</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38.72</v>
+        <v>121.8</v>
       </c>
       <c r="D15" t="n">
-        <v>83.84</v>
+        <v>180.64</v>
       </c>
       <c r="E15" t="n">
-        <v>22.956</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>79.78</v>
+        <v>42.72</v>
       </c>
       <c r="D16" t="n">
-        <v>139.48</v>
+        <v>109.82</v>
       </c>
       <c r="E16" t="n">
-        <v>22.792</v>
+        <v>23.808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>181.5</v>
+        <v>263.84</v>
       </c>
       <c r="D17" t="n">
-        <v>243.8</v>
+        <v>311.78</v>
       </c>
       <c r="E17" t="n">
-        <v>15.14</v>
+        <v>11.092</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>106.14</v>
+        <v>113.78</v>
       </c>
       <c r="D18" t="n">
-        <v>183.1</v>
+        <v>174.8</v>
       </c>
       <c r="E18" t="n">
-        <v>17.64</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>183.1</v>
+        <v>109.82</v>
       </c>
       <c r="D19" t="n">
-        <v>234.6</v>
+        <v>154.12</v>
       </c>
       <c r="E19" t="n">
-        <v>14.12</v>
+        <v>20.508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>243.8</v>
+        <v>174.8</v>
       </c>
       <c r="D20" t="n">
-        <v>282.82</v>
+        <v>224.6</v>
       </c>
       <c r="E20" t="n">
-        <v>12.368</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="21">
@@ -827,112 +827,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>83.84</v>
+        <v>55.28</v>
       </c>
       <c r="D21" t="n">
-        <v>146.94</v>
+        <v>120.78</v>
       </c>
       <c r="E21" t="n">
-        <v>20.716</v>
+        <v>22.732</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>181.58</v>
+        <v>120.78</v>
       </c>
       <c r="D22" t="n">
-        <v>244.36</v>
+        <v>161.56</v>
       </c>
       <c r="E22" t="n">
-        <v>15.084</v>
+        <v>19.784</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>146.94</v>
+        <v>180.64</v>
       </c>
       <c r="D23" t="n">
-        <v>236.94</v>
+        <v>246.16</v>
       </c>
       <c r="E23" t="n">
-        <v>17.296</v>
+        <v>13.444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>282.82</v>
+        <v>224.6</v>
       </c>
       <c r="D24" t="n">
-        <v>333.02</v>
+        <v>289.18</v>
       </c>
       <c r="E24" t="n">
-        <v>8.988</v>
+        <v>10.732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>139.48</v>
+        <v>161.56</v>
       </c>
       <c r="D25" t="n">
-        <v>186.98</v>
+        <v>255.48</v>
       </c>
       <c r="E25" t="n">
-        <v>19.672</v>
+        <v>15.472</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>176.4</v>
+        <v>154.12</v>
       </c>
       <c r="D26" t="n">
-        <v>209.2</v>
+        <v>238.64</v>
       </c>
       <c r="E26" t="n">
-        <v>16.64</v>
+        <v>16.636</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>209.2</v>
+        <v>149.3</v>
       </c>
       <c r="D27" t="n">
-        <v>278.16</v>
+        <v>203</v>
       </c>
       <c r="E27" t="n">
-        <v>13.364</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>234.6</v>
+        <v>203</v>
       </c>
       <c r="D28" t="n">
-        <v>300.1</v>
+        <v>245.5</v>
       </c>
       <c r="E28" t="n">
-        <v>9.699999999999999</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>278.16</v>
+        <v>245.5</v>
       </c>
       <c r="D29" t="n">
-        <v>349.08</v>
+        <v>298</v>
       </c>
       <c r="E29" t="n">
-        <v>8.891999999999999</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>236.94</v>
+        <v>238.64</v>
       </c>
       <c r="D30" t="n">
-        <v>274.16</v>
+        <v>301.04</v>
       </c>
       <c r="E30" t="n">
-        <v>14.704</v>
+        <v>11.536</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>244.36</v>
+        <v>301.04</v>
       </c>
       <c r="D31" t="n">
-        <v>324.88</v>
+        <v>367.8</v>
       </c>
       <c r="E31" t="n">
-        <v>11.652</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>333.02</v>
+        <v>289.18</v>
       </c>
       <c r="D32" t="n">
-        <v>388.54</v>
+        <v>329.38</v>
       </c>
       <c r="E32" t="n">
-        <v>6.076</v>
+        <v>7.352</v>
       </c>
     </row>
     <row r="33">
@@ -1055,169 +1055,169 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>274.16</v>
+        <v>255.48</v>
       </c>
       <c r="D33" t="n">
-        <v>362.56</v>
+        <v>327.34</v>
       </c>
       <c r="E33" t="n">
-        <v>10.964</v>
+        <v>10.896</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>362.56</v>
+        <v>246.16</v>
       </c>
       <c r="D34" t="n">
-        <v>408.66</v>
+        <v>299.08</v>
       </c>
       <c r="E34" t="n">
-        <v>7.484</v>
+        <v>10.272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>186.98</v>
+        <v>327.34</v>
       </c>
       <c r="D35" t="n">
-        <v>241.28</v>
+        <v>363.42</v>
       </c>
       <c r="E35" t="n">
-        <v>16.372</v>
+        <v>7.928</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>300.1</v>
+        <v>298</v>
       </c>
       <c r="D36" t="n">
-        <v>367.16</v>
+        <v>342.28</v>
       </c>
       <c r="E36" t="n">
-        <v>7.104</v>
+        <v>12.572</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>367.16</v>
+        <v>311.78</v>
       </c>
       <c r="D37" t="n">
-        <v>457.44</v>
+        <v>371.58</v>
       </c>
       <c r="E37" t="n">
-        <v>4.156</v>
+        <v>7.712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>324.88</v>
+        <v>299.08</v>
       </c>
       <c r="D38" t="n">
-        <v>363.96</v>
+        <v>350.28</v>
       </c>
       <c r="E38" t="n">
-        <v>9.364000000000001</v>
+        <v>6.792</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>349.08</v>
+        <v>367.8</v>
       </c>
       <c r="D39" t="n">
-        <v>422.6</v>
+        <v>417.76</v>
       </c>
       <c r="E39" t="n">
-        <v>5.14</v>
+        <v>6.084</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>241.28</v>
+        <v>350.28</v>
       </c>
       <c r="D40" t="n">
-        <v>292.06</v>
+        <v>428.6</v>
       </c>
       <c r="E40" t="n">
-        <v>13.404</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>292.06</v>
+        <v>342.28</v>
       </c>
       <c r="D41" t="n">
-        <v>346.84</v>
+        <v>412.7</v>
       </c>
       <c r="E41" t="n">
-        <v>9.555999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
   </sheetData>
